--- a/exercises/glossary/glossery.xlsx
+++ b/exercises/glossary/glossery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stise-my.sharepoint.com/personal/hampus_donnersten_stud_sti_se/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stise-my.sharepoint.com/personal/hampus_donnersten_stud_sti_se/Documents/Github/sql-hampus-donnersten-de24/exercises/glossary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{AF6B3FBB-A282-B243-89D9-3028D1CE0FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CC35443-278C-EA42-A915-4A48D50FFCC5}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{AF6B3FBB-A282-B243-89D9-3028D1CE0FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F265D42F-A9EC-324A-89AF-7880AD500CF6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="17120" windowHeight="21360" xr2:uid="{F240B5A0-2B15-B643-AD25-2A05A3102659}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="880" windowWidth="17100" windowHeight="21360" xr2:uid="{F240B5A0-2B15-B643-AD25-2A05A3102659}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>CRUD</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t xml:space="preserve">Retunerar de gemensamma data från två tabels. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Används för att söka efter ett mönster i en kolumn och används vanligtvis i en WHERE-sats. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;,&lt;,=,&gt;=,&lt;=, =, !=, BETWEEN, IN, LIKE, IS NULL, IS NOT NULL.</t>
   </si>
 </sst>
 </file>
@@ -394,6 +400,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C77949-D3F0-544C-860F-D3CE365DF336}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,6 +1118,9 @@
       <c r="A51" t="s">
         <v>48</v>
       </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -1152,6 +1165,9 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/exercises/glossary/glossery.xlsx
+++ b/exercises/glossary/glossery.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="42" documentId="8_{AF6B3FBB-A282-B243-89D9-3028D1CE0FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F265D42F-A9EC-324A-89AF-7880AD500CF6}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="880" windowWidth="17100" windowHeight="21360" xr2:uid="{F240B5A0-2B15-B643-AD25-2A05A3102659}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="21360" xr2:uid="{F240B5A0-2B15-B643-AD25-2A05A3102659}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C77949-D3F0-544C-860F-D3CE365DF336}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
